--- a/src/Flex.SingleWeb/wwwroot/Excel/exports/2024-07-22/联系我们_1.xlsx
+++ b/src/Flex.SingleWeb/wwwroot/Excel/exports/2024-07-22/联系我们_1.xlsx
@@ -50,10 +50,10 @@
     <t>日期范围</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>cs</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>[]</t>
@@ -153,7 +153,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -202,7 +202,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>11200</v>
+        <v>13539</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -211,39 +211,39 @@
         <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>45495.703768402775</v>
+        <v>45490.67597222222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>11192</v>
+        <v>11200</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
@@ -252,34 +252,75 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
+        <v>45495.703768402775</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>11192</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
         <v>45490.67597453704</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
